--- a/interview_code.xlsx
+++ b/interview_code.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +50,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00ff2727"/>
+        <bgColor rgb="00ff2727"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0044ff44"/>
         <bgColor rgb="0044ff44"/>
       </patternFill>
@@ -64,6 +70,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ff7f7f"/>
         <bgColor rgb="00ff7f7f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0013ff13"/>
+        <bgColor rgb="0013ff13"/>
       </patternFill>
     </fill>
   </fills>
@@ -85,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -109,6 +121,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -476,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +535,7 @@
     <col width="42" customWidth="1" min="31" max="31"/>
     <col width="42" customWidth="1" min="32" max="32"/>
     <col width="42" customWidth="1" min="33" max="33"/>
+    <col width="42" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -681,6 +700,11 @@
       <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>Код 26: Опыт в библиотечном сообществе</t>
+        </is>
+      </c>
+      <c r="AH1" s="3" t="inlineStr">
+        <is>
+          <t>Код 27: Фидбек</t>
         </is>
       </c>
     </row>
@@ -825,6 +849,11 @@
           <t>Что из вашего опыта преодоления трудностей, на ваш взгляд, могло бы пригодиться коллегам из библиотечной сферы, которые только планируют реализацию творческих проектов на своей базе? Какие меры или решения могли бы помочь преодолевать трудности?</t>
         </is>
       </c>
+      <c r="AH2" s="2" t="inlineStr">
+        <is>
+          <t>Как вам интервью?</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -862,12 +891,12 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>Можно сказать, что я сюда попала случайно. Училась я в Архангельском университете заочно. Моя бабушка всю жизнь проработала на севере, им в свое время добавили квартиры под переселение в Московскую область, так как она уже была старенькая, то отдала ее нам. Когда мой муж туда поехал, то решил, что не будет продавать квартиру, поэтому мы решили поехать туда. Там я работала в службе судебных приставов, мне это очень нравилось. Через 10 лет мы решили вернуться обратно на север. Приехали в поселок, у меня был маленький ребенок на тот момент, и я сидела дома, чисто случайно я увидела объявление, что в библиотеку требуется библиотекарь, я посмотрела, пришла туда. Мне внешне очень понравилась библиотека, я очень удивилась. Пообщалась с директором, они очень тепло меня встретили, сначала думала, что меня не взяли, поэтому мы уехали в деревню. А мне звонят и спрашивают, не передумала ли я идти к ним на работу. Мне нравится работать с детьми больше, чем со взрослыми. Дети очень хорошо относятся к нам, постоянно приходят к нам и что-то рассказывают, я с удовольствием хожу на работу.|{"sa": -0.3007555902004242, "kw": ["сказать", "учиться", "север", "переселение", "старенький", "отдавать", "решать", "поэтому", "работать", "приезжать", "поселок", "момент", "посмотреть", "пообщаться", "директор", "встречать", "взять", "уезжать", "деревня", "звонить", "спрашивать", "передумывать", "идти", "работа", "ребенок", "взрослый", "относиться"]}</t>
+          <t>Можно сказать, что я сюда попала случайно. Училась я в Архангельском университете заочно. Моя бабушка всю жизнь проработала на севере, им в свое время добавили квартиры под переселение в Московскую область, так как она уже была старенькая, то отдала ее нам. Когда мой муж туда поехал, то решил, что не будет продавать квартиру, поэтому мы решили поехать туда. Там я работала в службе судебных приставов, мне это очень нравилось. Через 10 лет мы решили вернуться обратно на север. Приехали в поселок, у меня был маленький ребенок на тот момент, и я сидела дома, чисто случайно я увидела объявление, что в библиотеку требуется библиотекарь, я посмотрела, пришла туда. Мне внешне очень понравилась библиотека, я очень удивилась. Пообщалась с директором, они очень тепло меня встретили, сначала думала, что меня не взяли, поэтому мы уехали в деревню. А мне звонят и спрашивают, не передумала ли я идти к ним на работу. Мне нравится работать с детьми больше, чем со взрослыми. Дети очень хорошо относятся к нам, постоянно приходят к нам и что-то рассказывают, я с удовольствием хожу на работу.|{"sa": -0.3007555902004242, "kw": ["сказать", "учиться", "север", "переселение", "старенький", "отдавать", "решать", "работать", "нравиться", "приезжать", "поселок", "момент", "посмотреть", "внешне", "удивляться", "пообщаться", "директор", "тепло", "встречать", "взять", "уезжать", "деревня", "звонить", "спрашивать", "передумывать", "идти", "работа", "ребенок", "взрослый", "относиться"]}</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
-          <t>Библиотекарь центральной детской библиотеки. Я выдаю фонд, сейчас у нас много различных мероприятий, на неделе к нам ходит очень много школьников, мы постоянно приглашаем их на мероприятия. Один раз был такой случай, что учитель не очень хотел к нам идти и сказал, что в библиотеке будет классный час, хотите можете идти – прибежали все до единого. Сейчас у нас немножко трудности из-за ремонта, они не могут тут посидеть, подождать время до кружков. Сейчас мы работаем только на выдачу.|{"kw": ["неделя", "школьник", "мероприятие", "случай", "учитель", "идти", "сказать", "библиотека", "прибегать", "единый", "мочь", "посидеть", "кружок", "работать", "выдача"]}</t>
+          <t>Библиотекарь центральной детской библиотеки. Я выдаю фонд, сейчас у нас много различных мероприятий, на неделе к нам ходит очень много школьников, мы постоянно приглашаем их на мероприятия. Один раз был такой случай, что учитель не очень хотел к нам идти и сказал, что в библиотеке будет классный час, хотите можете идти – прибежали все до единого. Сейчас у нас немножко трудности из-за ремонта, они не могут тут посидеть, подождать время до кружков. Сейчас мы работаем только на выдачу.|{"kw": ["неделя", "ходить", "школьник", "мероприятие", "случай", "учитель", "хотеть", "идти", "сказать", "библиотека", "прибегать", "единый", "мочь", "посидеть", "кружок", "работать", "выдача"]}</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -891,7 +920,7 @@
         <is>
           <t>На мастерклассы приходят дети с родителями, но есть дети (3,4,5 класс), они приходят одни. Чаще всего приходит начальная школа. У нас был клуб “Домовенок” раз в месяц, туда приходили мамы с детьми, их было очень много.
 Да, им в основном интересны компьютерные игры. Приходят играть, их не так много.
-Ну, у нас уже дети после 9-ого класса ходят во взрослую, особенно девочки. А так вообще до 11-ого класса.|{"kw": ["родитель", "ребенок", "приходить", "часто", "клуб", "домовенок", "месяц", "очень", "взрослый", "вообще"]}</t>
+Ну, у нас уже дети после 9-ого класса ходят во взрослую, особенно девочки. А так вообще до 11-ого класса.|{"kw": ["родитель", "ребенок", "приходить", "часто", "клуб", "домовенок", "месяц", "взрослый", "вообще"]}</t>
         </is>
       </c>
       <c r="O3" s="5" t="inlineStr">
@@ -902,12 +931,12 @@
       <c r="P3" s="5" t="inlineStr">
         <is>
           <t>Сейчас мы в основном мы работаем по планам, поэтому нет времени на то, чтобы делать что-то свое. В последнее время мы работали по тур. маршрутам по сказкам Степана Песахова. Сказки им нравятся.
-Этот проект был создан центром туристического развития, а мы этот проект воплощали.|{"kw": ["основное", "работать", "план", "поэтому", "время", "сказка", "нравиться", "проект"]}</t>
+Этот проект был создан центром туристического развития, а мы этот проект воплощали.|{"kw": ["основное", "работать", "план", "время", "сказка", "нравиться", "проект"]}</t>
         </is>
       </c>
       <c r="Q3" s="5" t="inlineStr">
         <is>
-          <t>Да, у нас такое бывает с учителями, мы очень часто с ними работаем. Они говорят, например тему фольклора, мы придумали мероприятие, пели частушки, вспоминали поговорки. Дети не стесняются, с ними очень интересно.|{"kw": ["бывать", "учитель", "работать", "говорить", "ребенок", "стесняться"]}</t>
+          <t>Да, у нас такое бывает с учителями, мы очень часто с ними работаем. Они говорят, например тему фольклора, мы придумали мероприятие, пели частушки, вспоминали поговорки. Дети не стесняются, с ними очень интересно.|{"kw": ["бывать", "учитель", "часто", "работать", "говорить", "ребенок", "стесняться", "интересно"]}</t>
         </is>
       </c>
       <c r="R3" s="5" t="inlineStr">
@@ -919,7 +948,7 @@
       <c r="S3" s="5" t="inlineStr">
         <is>
           <t>Публикуем информацию в ВКонтакте, расклеиваем объявления.
-Через соц. Сети, а так как это деревня, то тут еще и сарафанное радио работает.|{"kw": ["вконтакте"]}</t>
+Через соц. Сети, а так как это деревня, то тут еще и сарафанное радио работает.|{"kw": ["вконтакте", "деревня"]}</t>
         </is>
       </c>
       <c r="T3" s="5" t="inlineStr">
@@ -930,7 +959,7 @@
       <c r="U3" s="5" t="inlineStr">
         <is>
           <t>Наверное, это что-то новенькое. Это относится к библиотекам, так как нам нужно всегда что-то интересное придумывать, а не просто выдавать книги, потому что сейчас они воспринимают информацию по-другому. Надо, чтобы в библиотеке ребенок мог позаниматься чем-то интересным, а не только почитал. Подростки хотят общаться в неформальной обстановке, наверное все можно вложить в это понятие.
-Музыкальные, творческие.|{"kw": ["наверное", "библиотека", "нужно", "почитать", "вкладывать", "музыкальный", "творческий"]}</t>
+Музыкальные, творческие.|{"kw": ["наверное", "относиться", "библиотека", "нужно", "почитать", "вкладывать", "понятие", "музыкальный", "творческий"]}</t>
         </is>
       </c>
       <c r="V3" s="5" t="inlineStr">
@@ -968,7 +997,7 @@
       <c r="AC3" s="5" t="inlineStr">
         <is>
           <t>Не знаю, проектор, компьютер и интернет – вот вся наша материально-техническая база. Для каких-то кружков нужно больше всего, чтобы воплотить какие-то мечты, то нужно что-то иметь в своей библиотеке.
-Нужно купить баночки, как-то это все оформить – на это все нужны деньги. Сама же я не могу все это сделать, хотелось бы привлечь специалистов.|{"kw": ["знать", "проектор", "компьютер", "интернет", "оформлять", "это", "мочь", "хотеться"]}</t>
+Нужно купить баночки, как-то это все оформить – на это все нужны деньги. Сама же я не могу все это сделать, хотелось бы привлечь специалистов.|{"kw": ["знать", "проектор", "компьютер", "интернет", "как-то", "оформлять", "мочь", "сделать", "хотеться"]}</t>
         </is>
       </c>
       <c r="AD3" s="5" t="inlineStr">
@@ -976,7 +1005,7 @@
           <t>Да.
 Так как это поселок, то спонсоров у нас нет, на районные мероприятия мы запрашиваем деньги, но выделяется очень мало. Нужно привлекать каких-то спонсоров.
 Нет.
-Да, приходила девушка из газеты и предлагала размещать наши мероприятия в газете.|{"kw": ["спонсор", "газета"]}</t>
+Да, приходила девушка из газеты и предлагала размещать наши мероприятия в газете.|{"kw": ["поселок", "спонсор", "выделяться", "мало", "газета"]}</t>
         </is>
       </c>
       <c r="AE3" s="5" t="inlineStr">
@@ -992,6 +1021,11 @@
       <c r="AG3" s="5" t="inlineStr">
         <is>
           <t>Чем больше специалистов в твоей команде, тем лучше получиться реализовать проект.|{"kw": ["специалист"]}</t>
+        </is>
+      </c>
+      <c r="AH3" s="6" t="inlineStr">
+        <is>
+          <t>Мне очень не понравилось. Это было ужасно, ну просто отвратительно. Так затянуто и уныло, никому не советую. Сущий кошмар и полный отстой.|{"sa": -0.8439050912857056, "kw": ["понравиться", "ужасно", "затягивать", "уныло", "советовать"]}</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1087,7 @@
       <c r="M4" s="5" t="inlineStr">
         <is>
           <t>Ещё мы занимаемся Северной росписью и стараемся ее как-то смешать с современным стилем, то есть традиции старого на современный лад. Например, мы шили из своих джинсов сумки, потом расписывали, это очень понравилось взрослым. Детям тоже интересно, но мы пока с ними не пробовали, так как у нас было ограниченное количество джинсов и материалов. Буквально вчера мы делали мастеркласс на бересте, расписывали его.
-Я училась в художественном классе, поэтому привыкла, так как мы ходили на кружки постоянно, поэтому роспись мне нравится, я стараюсь ее везде применять.|{"kw": ["стараться", "например", "шить", "расписывать", "ребенок", "интересно", "пока", "пробовать", "материал", "береста", "учиться", "ходить", "нравиться"]}</t>
+Я училась в художественном классе, поэтому привыкла, так как мы ходили на кружки постоянно, поэтому роспись мне нравится, я стараюсь ее везде применять.|{"kw": ["стараться", "например", "шить", "расписывать", "ребенок", "интересно", "пока", "пробовать", "материал", "береста", "учиться", "привыкать", "ходить", "роспись", "нравиться"]}</t>
         </is>
       </c>
       <c r="N4" s="5" t="inlineStr">
@@ -1064,7 +1098,7 @@
       </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
-          <t>Да, как раз таки пенсионеры очень хотят научиться работать на компьютере, мы планируем создать такой клуб и обучить их. Есть такая проблема у детей, что они не умеют создавать презентации, работать в Ворде, поэтому мы хотим создать такой же клуб как для взрослых, так и для детей.|{"kw": ["компьютер", "клуб", "обучать", "проблема", "ребенок", "работать", "ворд", "поэтому", "взрослый"]}</t>
+          <t>Да, как раз таки пенсионеры очень хотят научиться работать на компьютере, мы планируем создать такой клуб и обучить их. Есть такая проблема у детей, что они не умеют создавать презентации, работать в Ворде, поэтому мы хотим создать такой же клуб как для взрослых, так и для детей.|{"kw": ["компьютер", "клуб", "обучать", "проблема", "ребенок", "работать", "ворд", "взрослый"]}</t>
         </is>
       </c>
       <c r="P4" s="5" t="inlineStr">
@@ -1080,7 +1114,7 @@
       <c r="R4" s="5" t="inlineStr">
         <is>
           <t>Стараемся и мы регулировать, но если кто-то что-то просит, то мы предоставляем без проблем.
-Нет, плату брать здесь проблемно, так как население здесь ближе к  сельскому, поэтому они не особо хотят платить за это. Здесь больше на бесплатной основе все.|{"kw": ["стараться", "регулировать", "предоставлять", "проблема", "проблемно", "население", "близко", "сельский", "поэтому", "это"]}</t>
+Нет, плату брать здесь проблемно, так как население здесь ближе к  сельскому, поэтому они не особо хотят платить за это. Здесь больше на бесплатной основе все.|{"kw": ["стараться", "регулировать", "предоставлять", "проблема", "проблемно", "население", "близко", "сельский"]}</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
@@ -1097,16 +1131,16 @@
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>Креативное - новое, современное. Можно сказать, что это не связано с книгами, это что-то из другой области, может быть это фото, видео какие-то.|{"kw": ["креативный", "новое", "современный", "сказать", "это", "связанный", "книга", "область"]}</t>
+          <t>Креативное - новое, современное. Можно сказать, что это не связано с книгами, это что-то из другой области, может быть это фото, видео какие-то.|{"kw": ["креативный", "новое", "современный", "сказать", "связанный", "книга", "что-то", "область", "фото"]}</t>
         </is>
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
           <t>Можно, наверное, называть 3-д моделированием, мы делали фигурки и часто у нас их хотели купить. Пока человек, который работал с ребятами, находится в командировке, то у нас нет возможности этим заниматься.
-Да, они бесплатные.|{"kw": ["наверное", "часто", "ребята", "находиться", "командировка", "бесплатный"]}</t>
-        </is>
-      </c>
-      <c r="W4" s="6" t="inlineStr">
+Да, они бесплатные.|{"kw": ["наверное", "часто", "ребята", "находиться", "командировка", "возможность", "заниматься", "бесплатный"]}</t>
+        </is>
+      </c>
+      <c r="W4" s="7" t="inlineStr">
         <is>
           <t>Мне кажется, что будут более интересны даже молодежи.|{"sa": 0.7310686111450195, "kw": ["кажется", "интересный", "молодежь"]}</t>
         </is>
@@ -1127,24 +1161,24 @@
           <t>Мы проходим курсы повышения квалификации, смотрим вебинары. В данный момент я прохожу курсы по повышению квалификации в РГБ.|{"kw": ["ргб"]}</t>
         </is>
       </c>
-      <c r="AA4" s="7" t="inlineStr">
+      <c r="AA4" s="8" t="inlineStr">
         <is>
           <t>Все зависит от категории людей, с подростками сложнее всего, сложнее всего привлекать их.|{"sa": -0.5544804334640503, "kw": ["зависеть", "сложно", "привлекать"]}</t>
         </is>
       </c>
       <c r="AB4" s="5" t="inlineStr">
         <is>
-          <t>Да, есть, даже если взять 3-д моделирование, мы не можем знать всего, не умеем моделировать новые, индивидуальные вещи. Что касается художества, то с этим нет проблем. С видео нам главное самим научиться, а потом обучать других.|{"kw": ["это", "проблема", "видео", "главное", "научаться", "обучать"]}</t>
-        </is>
-      </c>
-      <c r="AC4" s="2" t="inlineStr">
-        <is>
-          <t>Сейчас у нас новая техника, с этим проблем нет.</t>
+          <t>Да, есть, даже если взять 3-д моделирование, мы не можем знать всего, не умеем моделировать новые, индивидуальные вещи. Что касается художества, то с этим нет проблем. С видео нам главное самим научиться, а потом обучать других.|{"kw": ["проблема", "видео", "главное", "научаться", "обучать"]}</t>
+        </is>
+      </c>
+      <c r="AC4" s="5" t="inlineStr">
+        <is>
+          <t>Сейчас у нас новая техника, с этим проблем нет.|{"kw": ["проблема"]}</t>
         </is>
       </c>
       <c r="AD4" s="5" t="inlineStr">
         <is>
-          <t>В данный момент мы пытаемся привлекать в качестве благотворительности, потому что это все затратно, это делают магазины. Бывает, что предприниматели помогают с подарками для конкурсов, в остальных случаях администрация помогает с масштабными проектами.|{"kw": ["это", "затратный", "бывать", "подарок", "конкурс"]}</t>
+          <t>В данный момент мы пытаемся привлекать в качестве благотворительности, потому что это все затратно, это делают магазины. Бывает, что предприниматели помогают с подарками для конкурсов, в остальных случаях администрация помогает с масштабными проектами.|{"kw": ["затратный", "бывать", "подарок", "конкурс"]}</t>
         </is>
       </c>
       <c r="AE4" s="5" t="inlineStr">
@@ -1152,14 +1186,19 @@
           <t>В основном пытаемся найти что-то в интернете, либо узнать у коллег в библиотеке.|{"kw": ["интернет", "коллега", "библиотека"]}</t>
         </is>
       </c>
-      <c r="AF4" s="8" t="inlineStr">
-        <is>
-          <t>Обращаемся, привлекаем население, читателей. Если мы просим, то они всегда нам помогают. Они с этого ничего не получают, мы просто покупаем им материалы.|{"sa": -0.5000100135803223, "kw": ["обращаться", "читатель", "просить", "помогать", "это", "получать", "материал"]}</t>
+      <c r="AF4" s="9" t="inlineStr">
+        <is>
+          <t>Обращаемся, привлекаем население, читателей. Если мы просим, то они всегда нам помогают. Они с этого ничего не получают, мы просто покупаем им материалы.|{"sa": -0.5000100135803223, "kw": ["обращаться", "читатель", "просить", "помогать", "получать", "материал"]}</t>
         </is>
       </c>
       <c r="AG4" s="2" t="inlineStr">
         <is>
           <t>Я могу помочь только с художественными проектами.</t>
+        </is>
+      </c>
+      <c r="AH4" s="10" t="inlineStr">
+        <is>
+          <t>Это было невероятно! Просто замечательно. Ничего лучше и представить не могу. Одним словом все было восхитительно.|{"sa": 0.9241518378257751, "kw": ["невероятно", "представлять", "мочь", "словом", "восхитительно"]}</t>
         </is>
       </c>
     </row>
